--- a/Chonqqing Power Grid/data-output/农网2018预测值对比-删除合并增加电商等-数量.xlsx
+++ b/Chonqqing Power Grid/data-output/农网2018预测值对比-删除合并增加电商等-数量.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>物资品类</t>
   </si>
@@ -220,6 +221,30 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色预测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,7 +629,7 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+      <selection activeCell="F19" sqref="C19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2598,5 +2623,82 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F8:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>8353</v>
+      </c>
+      <c r="H10">
+        <v>5091</v>
+      </c>
+      <c r="I10">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11">
+        <v>8353</v>
+      </c>
+      <c r="H11">
+        <f>$K$8*H10+(1-$K$8)*G11</f>
+        <v>7048.2000000000007</v>
+      </c>
+      <c r="I11">
+        <f>$K$8*I10+(1-$K$8)*H11</f>
+        <v>5449.72</v>
+      </c>
+      <c r="L11">
+        <f>5161-I11</f>
+        <v>-288.72000000000025</v>
+      </c>
+      <c r="M11">
+        <f>L11/5161</f>
+        <v>-5.5942646773881083E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>